--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Dhh-Ptch2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Dhh-Ptch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.08864570572383</v>
+        <v>3.778327333333333</v>
       </c>
       <c r="H2">
-        <v>3.08864570572383</v>
+        <v>11.334982</v>
       </c>
       <c r="I2">
-        <v>0.6493573882380687</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="J2">
-        <v>0.6493573882380687</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.31410407924113</v>
+        <v>3.340928</v>
       </c>
       <c r="N2">
-        <v>3.31410407924113</v>
+        <v>10.022784</v>
       </c>
       <c r="O2">
-        <v>0.3483541909034158</v>
+        <v>0.3111720339385076</v>
       </c>
       <c r="P2">
-        <v>0.3483541909034158</v>
+        <v>0.3111720339385076</v>
       </c>
       <c r="Q2">
-        <v>10.23609333266994</v>
+        <v>12.62311958109867</v>
       </c>
       <c r="R2">
-        <v>10.23609333266994</v>
+        <v>113.608076229888</v>
       </c>
       <c r="S2">
-        <v>0.2262063675868277</v>
+        <v>0.1973077516331903</v>
       </c>
       <c r="T2">
-        <v>0.2262063675868277</v>
+        <v>0.1973077516331903</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.08864570572383</v>
+        <v>3.778327333333333</v>
       </c>
       <c r="H3">
-        <v>3.08864570572383</v>
+        <v>11.334982</v>
       </c>
       <c r="I3">
-        <v>0.6493573882380687</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="J3">
-        <v>0.6493573882380687</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.47542418634844</v>
+        <v>5.494267666666667</v>
       </c>
       <c r="N3">
-        <v>5.47542418634844</v>
+        <v>16.482803</v>
       </c>
       <c r="O3">
-        <v>0.5755362283990676</v>
+        <v>0.5117328014369795</v>
       </c>
       <c r="P3">
-        <v>0.5755362283990676</v>
+        <v>0.5117328014369795</v>
       </c>
       <c r="Q3">
-        <v>16.91164540018151</v>
+        <v>20.75914170161622</v>
       </c>
       <c r="R3">
-        <v>16.91164540018151</v>
+        <v>186.832275314546</v>
       </c>
       <c r="S3">
-        <v>0.3737287021096071</v>
+        <v>0.3244791866753592</v>
       </c>
       <c r="T3">
-        <v>0.3737287021096071</v>
+        <v>0.3244791866753592</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.08864570572383</v>
+        <v>3.778327333333333</v>
       </c>
       <c r="H4">
-        <v>3.08864570572383</v>
+        <v>11.334982</v>
       </c>
       <c r="I4">
-        <v>0.6493573882380687</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="J4">
-        <v>0.6493573882380687</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.327782908916469</v>
+        <v>0.3993656666666667</v>
       </c>
       <c r="N4">
-        <v>0.327782908916469</v>
+        <v>1.198097</v>
       </c>
       <c r="O4">
-        <v>0.03445412313475405</v>
+        <v>0.03719667912085346</v>
       </c>
       <c r="P4">
-        <v>0.03445412313475405</v>
+        <v>0.03719667912085346</v>
       </c>
       <c r="Q4">
-        <v>1.012405274034517</v>
+        <v>1.508934214361556</v>
       </c>
       <c r="R4">
-        <v>1.012405274034517</v>
+        <v>13.580407929254</v>
       </c>
       <c r="S4">
-        <v>0.02237303941281671</v>
+        <v>0.02358564499728522</v>
       </c>
       <c r="T4">
-        <v>0.02237303941281671</v>
+        <v>0.02358564499728522</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.08864570572383</v>
+        <v>3.778327333333333</v>
       </c>
       <c r="H5">
-        <v>3.08864570572383</v>
+        <v>11.334982</v>
       </c>
       <c r="I5">
-        <v>0.6493573882380687</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="J5">
-        <v>0.6493573882380687</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.396293558212661</v>
+        <v>1.018436666666667</v>
       </c>
       <c r="N5">
-        <v>0.396293558212661</v>
+        <v>3.05531</v>
       </c>
       <c r="O5">
-        <v>0.04165545756276257</v>
+        <v>0.09485658146605391</v>
       </c>
       <c r="P5">
-        <v>0.04165545756276257</v>
+        <v>0.09485658146605391</v>
       </c>
       <c r="Q5">
-        <v>1.224010396779552</v>
+        <v>3.847987094935556</v>
       </c>
       <c r="R5">
-        <v>1.224010396779552</v>
+        <v>34.63188385442</v>
       </c>
       <c r="S5">
-        <v>0.02704927912881721</v>
+        <v>0.06014659665841372</v>
       </c>
       <c r="T5">
-        <v>0.02704927912881721</v>
+        <v>0.06014659665841372</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.09106225476578</v>
+        <v>3.778327333333333</v>
       </c>
       <c r="H6">
-        <v>1.09106225476578</v>
+        <v>11.334982</v>
       </c>
       <c r="I6">
-        <v>0.2293851103889591</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="J6">
-        <v>0.2293851103889591</v>
+        <v>0.6340793198407454</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.31410407924113</v>
+        <v>0.4835966666666667</v>
       </c>
       <c r="N6">
-        <v>3.31410407924113</v>
+        <v>1.45079</v>
       </c>
       <c r="O6">
-        <v>0.3483541909034158</v>
+        <v>0.04504190403760547</v>
       </c>
       <c r="P6">
-        <v>0.3483541909034158</v>
+        <v>0.04504190403760547</v>
       </c>
       <c r="Q6">
-        <v>3.615893869225296</v>
+        <v>1.827186503975556</v>
       </c>
       <c r="R6">
-        <v>3.615893869225296</v>
+        <v>16.44467853578</v>
       </c>
       <c r="S6">
-        <v>0.07990726453483656</v>
+        <v>0.028560139876497</v>
       </c>
       <c r="T6">
-        <v>0.07990726453483656</v>
+        <v>0.028560139876497</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.09106225476578</v>
+        <v>1.390555</v>
       </c>
       <c r="H7">
-        <v>1.09106225476578</v>
+        <v>4.171665</v>
       </c>
       <c r="I7">
-        <v>0.2293851103889591</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="J7">
-        <v>0.2293851103889591</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.47542418634844</v>
+        <v>3.340928</v>
       </c>
       <c r="N7">
-        <v>5.47542418634844</v>
+        <v>10.022784</v>
       </c>
       <c r="O7">
-        <v>0.5755362283990676</v>
+        <v>0.3111720339385076</v>
       </c>
       <c r="P7">
-        <v>0.5755362283990676</v>
+        <v>0.3111720339385076</v>
       </c>
       <c r="Q7">
-        <v>5.974028658556415</v>
+        <v>4.64574413504</v>
       </c>
       <c r="R7">
-        <v>5.974028658556415</v>
+        <v>41.81169721536</v>
       </c>
       <c r="S7">
-        <v>0.1320194412841653</v>
+        <v>0.0726160695903066</v>
       </c>
       <c r="T7">
-        <v>0.1320194412841653</v>
+        <v>0.0726160695903066</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.09106225476578</v>
+        <v>1.390555</v>
       </c>
       <c r="H8">
-        <v>1.09106225476578</v>
+        <v>4.171665</v>
       </c>
       <c r="I8">
-        <v>0.2293851103889591</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="J8">
-        <v>0.2293851103889591</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.327782908916469</v>
+        <v>5.494267666666667</v>
       </c>
       <c r="N8">
-        <v>0.327782908916469</v>
+        <v>16.482803</v>
       </c>
       <c r="O8">
-        <v>0.03445412313475405</v>
+        <v>0.5117328014369795</v>
       </c>
       <c r="P8">
-        <v>0.03445412313475405</v>
+        <v>0.5117328014369795</v>
       </c>
       <c r="Q8">
-        <v>0.357631559676089</v>
+        <v>7.640081375221667</v>
       </c>
       <c r="R8">
-        <v>0.357631559676089</v>
+        <v>68.76073237699501</v>
       </c>
       <c r="S8">
-        <v>0.007903262838620346</v>
+        <v>0.1194195514630779</v>
       </c>
       <c r="T8">
-        <v>0.007903262838620346</v>
+        <v>0.1194195514630779</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.09106225476578</v>
+        <v>1.390555</v>
       </c>
       <c r="H9">
-        <v>1.09106225476578</v>
+        <v>4.171665</v>
       </c>
       <c r="I9">
-        <v>0.2293851103889591</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="J9">
-        <v>0.2293851103889591</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.396293558212661</v>
+        <v>0.3993656666666667</v>
       </c>
       <c r="N9">
-        <v>0.396293558212661</v>
+        <v>1.198097</v>
       </c>
       <c r="O9">
-        <v>0.04165545756276257</v>
+        <v>0.03719667912085346</v>
       </c>
       <c r="P9">
-        <v>0.04165545756276257</v>
+        <v>0.03719667912085346</v>
       </c>
       <c r="Q9">
-        <v>0.4323809431726598</v>
+        <v>0.5553399246116667</v>
       </c>
       <c r="R9">
-        <v>0.4323809431726598</v>
+        <v>4.998059321505</v>
       </c>
       <c r="S9">
-        <v>0.009555141731336892</v>
+        <v>0.008680332243809459</v>
       </c>
       <c r="T9">
-        <v>0.009555141731336892</v>
+        <v>0.008680332243809459</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.226073818979451</v>
+        <v>1.390555</v>
       </c>
       <c r="H10">
-        <v>0.226073818979451</v>
+        <v>4.171665</v>
       </c>
       <c r="I10">
-        <v>0.04752979740261232</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="J10">
-        <v>0.04752979740261232</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.31410407924113</v>
+        <v>1.018436666666667</v>
       </c>
       <c r="N10">
-        <v>3.31410407924113</v>
+        <v>3.05531</v>
       </c>
       <c r="O10">
-        <v>0.3483541909034158</v>
+        <v>0.09485658146605391</v>
       </c>
       <c r="P10">
-        <v>0.3483541909034158</v>
+        <v>0.09485658146605391</v>
       </c>
       <c r="Q10">
-        <v>0.7492321656894194</v>
+        <v>1.416192199016667</v>
       </c>
       <c r="R10">
-        <v>0.7492321656894194</v>
+        <v>12.74572979115</v>
       </c>
       <c r="S10">
-        <v>0.01655720411799029</v>
+        <v>0.0221360256371842</v>
       </c>
       <c r="T10">
-        <v>0.01655720411799029</v>
+        <v>0.0221360256371842</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.226073818979451</v>
+        <v>1.390555</v>
       </c>
       <c r="H11">
-        <v>0.226073818979451</v>
+        <v>4.171665</v>
       </c>
       <c r="I11">
-        <v>0.04752979740261232</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="J11">
-        <v>0.04752979740261232</v>
+        <v>0.2333630971626989</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.47542418634844</v>
+        <v>0.4835966666666667</v>
       </c>
       <c r="N11">
-        <v>5.47542418634844</v>
+        <v>1.45079</v>
       </c>
       <c r="O11">
-        <v>0.5755362283990676</v>
+        <v>0.04504190403760547</v>
       </c>
       <c r="P11">
-        <v>0.5755362283990676</v>
+        <v>0.04504190403760547</v>
       </c>
       <c r="Q11">
-        <v>1.237850056340245</v>
+        <v>0.6724677628166666</v>
       </c>
       <c r="R11">
-        <v>1.237850056340245</v>
+        <v>6.05220986535</v>
       </c>
       <c r="S11">
-        <v>0.0273551203336713</v>
+        <v>0.01051111822832069</v>
       </c>
       <c r="T11">
-        <v>0.0273551203336713</v>
+        <v>0.01051111822832069</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.226073818979451</v>
+        <v>0.2515026666666667</v>
       </c>
       <c r="H12">
-        <v>0.226073818979451</v>
+        <v>0.754508</v>
       </c>
       <c r="I12">
-        <v>0.04752979740261232</v>
+        <v>0.04220720592713788</v>
       </c>
       <c r="J12">
-        <v>0.04752979740261232</v>
+        <v>0.04220720592713787</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.327782908916469</v>
+        <v>3.340928</v>
       </c>
       <c r="N12">
-        <v>0.327782908916469</v>
+        <v>10.022784</v>
       </c>
       <c r="O12">
-        <v>0.03445412313475405</v>
+        <v>0.3111720339385076</v>
       </c>
       <c r="P12">
-        <v>0.03445412313475405</v>
+        <v>0.3111720339385076</v>
       </c>
       <c r="Q12">
-        <v>0.07410313401493969</v>
+        <v>0.8402523011413333</v>
       </c>
       <c r="R12">
-        <v>0.07410313401493969</v>
+        <v>7.562270710271999</v>
       </c>
       <c r="S12">
-        <v>0.001637597492279518</v>
+        <v>0.01313370211520893</v>
       </c>
       <c r="T12">
-        <v>0.001637597492279518</v>
+        <v>0.01313370211520893</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,247 +1207,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.226073818979451</v>
+        <v>0.2515026666666667</v>
       </c>
       <c r="H13">
-        <v>0.226073818979451</v>
+        <v>0.754508</v>
       </c>
       <c r="I13">
-        <v>0.04752979740261232</v>
+        <v>0.04220720592713788</v>
       </c>
       <c r="J13">
-        <v>0.04752979740261232</v>
+        <v>0.04220720592713787</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.396293558212661</v>
+        <v>5.494267666666667</v>
       </c>
       <c r="N13">
-        <v>0.396293558212661</v>
+        <v>16.482803</v>
       </c>
       <c r="O13">
-        <v>0.04165545756276257</v>
+        <v>0.5117328014369795</v>
       </c>
       <c r="P13">
-        <v>0.04165545756276257</v>
+        <v>0.5117328014369795</v>
       </c>
       <c r="Q13">
-        <v>0.08959159814209165</v>
+        <v>1.381822969547111</v>
       </c>
       <c r="R13">
-        <v>0.08959159814209165</v>
+        <v>12.436406725924</v>
       </c>
       <c r="S13">
-        <v>0.00197987545867122</v>
+        <v>0.02159881172992175</v>
       </c>
       <c r="T13">
-        <v>0.00197987545867122</v>
+        <v>0.02159881172992175</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.350683245290871</v>
+        <v>0.2515026666666667</v>
       </c>
       <c r="H14">
-        <v>0.350683245290871</v>
+        <v>0.754508</v>
       </c>
       <c r="I14">
-        <v>0.07372770397035994</v>
+        <v>0.04220720592713788</v>
       </c>
       <c r="J14">
-        <v>0.07372770397035994</v>
+        <v>0.04220720592713787</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.31410407924113</v>
+        <v>0.3993656666666667</v>
       </c>
       <c r="N14">
-        <v>3.31410407924113</v>
+        <v>1.198097</v>
       </c>
       <c r="O14">
-        <v>0.3483541909034158</v>
+        <v>0.03719667912085346</v>
       </c>
       <c r="P14">
-        <v>0.3483541909034158</v>
+        <v>0.03719667912085346</v>
       </c>
       <c r="Q14">
-        <v>1.162200773739994</v>
+        <v>0.1004415301417778</v>
       </c>
       <c r="R14">
-        <v>1.162200773739994</v>
+        <v>0.9039737712759999</v>
       </c>
       <c r="S14">
-        <v>0.02568335466376129</v>
+        <v>0.001569967895459532</v>
       </c>
       <c r="T14">
-        <v>0.02568335466376129</v>
+        <v>0.001569967895459532</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.350683245290871</v>
+        <v>0.2515026666666667</v>
       </c>
       <c r="H15">
-        <v>0.350683245290871</v>
+        <v>0.754508</v>
       </c>
       <c r="I15">
-        <v>0.07372770397035994</v>
+        <v>0.04220720592713788</v>
       </c>
       <c r="J15">
-        <v>0.07372770397035994</v>
+        <v>0.04220720592713787</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>5.47542418634844</v>
+        <v>1.018436666666667</v>
       </c>
       <c r="N15">
-        <v>5.47542418634844</v>
+        <v>3.05531</v>
       </c>
       <c r="O15">
-        <v>0.5755362283990676</v>
+        <v>0.09485658146605391</v>
       </c>
       <c r="P15">
-        <v>0.5755362283990676</v>
+        <v>0.09485658146605391</v>
       </c>
       <c r="Q15">
-        <v>1.920139523012798</v>
+        <v>0.2561395374977777</v>
       </c>
       <c r="R15">
-        <v>1.920139523012798</v>
+        <v>2.30525583748</v>
       </c>
       <c r="S15">
-        <v>0.04243296467162392</v>
+        <v>0.004003631267482067</v>
       </c>
       <c r="T15">
-        <v>0.04243296467162392</v>
+        <v>0.004003631267482067</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.350683245290871</v>
+        <v>0.2515026666666667</v>
       </c>
       <c r="H16">
-        <v>0.350683245290871</v>
+        <v>0.754508</v>
       </c>
       <c r="I16">
-        <v>0.07372770397035994</v>
+        <v>0.04220720592713788</v>
       </c>
       <c r="J16">
-        <v>0.07372770397035994</v>
+        <v>0.04220720592713787</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.327782908916469</v>
+        <v>0.4835966666666667</v>
       </c>
       <c r="N16">
-        <v>0.327782908916469</v>
+        <v>1.45079</v>
       </c>
       <c r="O16">
-        <v>0.03445412313475405</v>
+        <v>0.04504190403760547</v>
       </c>
       <c r="P16">
-        <v>0.03445412313475405</v>
+        <v>0.04504190403760547</v>
       </c>
       <c r="Q16">
-        <v>0.1149479742497093</v>
+        <v>0.1216258512577778</v>
       </c>
       <c r="R16">
-        <v>0.1149479742497093</v>
+        <v>1.09463266132</v>
       </c>
       <c r="S16">
-        <v>0.002540223391037477</v>
+        <v>0.001901092919065597</v>
       </c>
       <c r="T16">
-        <v>0.002540223391037477</v>
+        <v>0.001901092919065597</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1452,61 +1455,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1830476666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.549143</v>
+      </c>
+      <c r="I17">
+        <v>0.03071908009516967</v>
+      </c>
+      <c r="J17">
+        <v>0.03071908009516967</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.340928</v>
+      </c>
+      <c r="N17">
+        <v>10.022784</v>
+      </c>
+      <c r="O17">
+        <v>0.3111720339385076</v>
+      </c>
+      <c r="P17">
+        <v>0.3111720339385076</v>
+      </c>
+      <c r="Q17">
+        <v>0.6115490749013334</v>
+      </c>
+      <c r="R17">
+        <v>5.503941674112</v>
+      </c>
+      <c r="S17">
+        <v>0.00955891863393387</v>
+      </c>
+      <c r="T17">
+        <v>0.009558918633933869</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1830476666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.549143</v>
+      </c>
+      <c r="I18">
+        <v>0.03071908009516967</v>
+      </c>
+      <c r="J18">
+        <v>0.03071908009516967</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>5.494267666666667</v>
+      </c>
+      <c r="N18">
+        <v>16.482803</v>
+      </c>
+      <c r="O18">
+        <v>0.5117328014369795</v>
+      </c>
+      <c r="P18">
+        <v>0.5117328014369795</v>
+      </c>
+      <c r="Q18">
+        <v>1.005712876425445</v>
+      </c>
+      <c r="R18">
+        <v>9.051415887829002</v>
+      </c>
+      <c r="S18">
+        <v>0.01571996091466813</v>
+      </c>
+      <c r="T18">
+        <v>0.01571996091466813</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1830476666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.549143</v>
+      </c>
+      <c r="I19">
+        <v>0.03071908009516967</v>
+      </c>
+      <c r="J19">
+        <v>0.03071908009516967</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.3993656666666667</v>
+      </c>
+      <c r="N19">
+        <v>1.198097</v>
+      </c>
+      <c r="O19">
+        <v>0.03719667912085346</v>
+      </c>
+      <c r="P19">
+        <v>0.03719667912085346</v>
+      </c>
+      <c r="Q19">
+        <v>0.07310295343011113</v>
+      </c>
+      <c r="R19">
+        <v>0.6579265808710001</v>
+      </c>
+      <c r="S19">
+        <v>0.001142647765187823</v>
+      </c>
+      <c r="T19">
+        <v>0.001142647765187823</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.1830476666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.549143</v>
+      </c>
+      <c r="I20">
+        <v>0.03071908009516967</v>
+      </c>
+      <c r="J20">
+        <v>0.03071908009516967</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>1.018436666666667</v>
+      </c>
+      <c r="N20">
+        <v>3.05531</v>
+      </c>
+      <c r="O20">
+        <v>0.09485658146605391</v>
+      </c>
+      <c r="P20">
+        <v>0.09485658146605391</v>
+      </c>
+      <c r="Q20">
+        <v>0.1864224554811111</v>
+      </c>
+      <c r="R20">
+        <v>1.67780209933</v>
+      </c>
+      <c r="S20">
+        <v>0.002913906923609697</v>
+      </c>
+      <c r="T20">
+        <v>0.002913906923609696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1830476666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.549143</v>
+      </c>
+      <c r="I21">
+        <v>0.03071908009516967</v>
+      </c>
+      <c r="J21">
+        <v>0.03071908009516967</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.4835966666666667</v>
+      </c>
+      <c r="N21">
+        <v>1.45079</v>
+      </c>
+      <c r="O21">
+        <v>0.04504190403760547</v>
+      </c>
+      <c r="P21">
+        <v>0.04504190403760547</v>
+      </c>
+      <c r="Q21">
+        <v>0.08852124144111112</v>
+      </c>
+      <c r="R21">
+        <v>0.79669117297</v>
+      </c>
+      <c r="S21">
+        <v>0.001383645857770149</v>
+      </c>
+      <c r="T21">
+        <v>0.001383645857770148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3553286666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.065986</v>
+      </c>
+      <c r="I22">
+        <v>0.05963129697424812</v>
+      </c>
+      <c r="J22">
+        <v>0.05963129697424811</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.340928</v>
+      </c>
+      <c r="N22">
+        <v>10.022784</v>
+      </c>
+      <c r="O22">
+        <v>0.3111720339385076</v>
+      </c>
+      <c r="P22">
+        <v>0.3111720339385076</v>
+      </c>
+      <c r="Q22">
+        <v>1.187127491669333</v>
+      </c>
+      <c r="R22">
+        <v>10.684147425024</v>
+      </c>
+      <c r="S22">
+        <v>0.01855559196586796</v>
+      </c>
+      <c r="T22">
+        <v>0.01855559196586796</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3553286666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.065986</v>
+      </c>
+      <c r="I23">
+        <v>0.05963129697424812</v>
+      </c>
+      <c r="J23">
+        <v>0.05963129697424811</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.494267666666667</v>
+      </c>
+      <c r="N23">
+        <v>16.482803</v>
+      </c>
+      <c r="O23">
+        <v>0.5117328014369795</v>
+      </c>
+      <c r="P23">
+        <v>0.5117328014369795</v>
+      </c>
+      <c r="Q23">
+        <v>1.952270804306445</v>
+      </c>
+      <c r="R23">
+        <v>17.570437238758</v>
+      </c>
+      <c r="S23">
+        <v>0.03051529065395247</v>
+      </c>
+      <c r="T23">
+        <v>0.03051529065395247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3553286666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.065986</v>
+      </c>
+      <c r="I24">
+        <v>0.05963129697424812</v>
+      </c>
+      <c r="J24">
+        <v>0.05963129697424811</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.3993656666666667</v>
+      </c>
+      <c r="N24">
+        <v>1.198097</v>
+      </c>
+      <c r="O24">
+        <v>0.03719667912085346</v>
+      </c>
+      <c r="P24">
+        <v>0.03719667912085346</v>
+      </c>
+      <c r="Q24">
+        <v>0.1419060698491111</v>
+      </c>
+      <c r="R24">
+        <v>1.277154628642</v>
+      </c>
+      <c r="S24">
+        <v>0.002218086219111427</v>
+      </c>
+      <c r="T24">
+        <v>0.002218086219111427</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.350683245290871</v>
-      </c>
-      <c r="H17">
-        <v>0.350683245290871</v>
-      </c>
-      <c r="I17">
-        <v>0.07372770397035994</v>
-      </c>
-      <c r="J17">
-        <v>0.07372770397035994</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.396293558212661</v>
-      </c>
-      <c r="N17">
-        <v>0.396293558212661</v>
-      </c>
-      <c r="O17">
-        <v>0.04165545756276257</v>
-      </c>
-      <c r="P17">
-        <v>0.04165545756276257</v>
-      </c>
-      <c r="Q17">
-        <v>0.1389735110818827</v>
-      </c>
-      <c r="R17">
-        <v>0.1389735110818827</v>
-      </c>
-      <c r="S17">
-        <v>0.00307116124393725</v>
-      </c>
-      <c r="T17">
-        <v>0.00307116124393725</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3553286666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.065986</v>
+      </c>
+      <c r="I25">
+        <v>0.05963129697424812</v>
+      </c>
+      <c r="J25">
+        <v>0.05963129697424811</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>1.018436666666667</v>
+      </c>
+      <c r="N25">
+        <v>3.05531</v>
+      </c>
+      <c r="O25">
+        <v>0.09485658146605391</v>
+      </c>
+      <c r="P25">
+        <v>0.09485658146605391</v>
+      </c>
+      <c r="Q25">
+        <v>0.3618797428511111</v>
+      </c>
+      <c r="R25">
+        <v>3.25691768566</v>
+      </c>
+      <c r="S25">
+        <v>0.005656420979364221</v>
+      </c>
+      <c r="T25">
+        <v>0.00565642097936422</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3553286666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.065986</v>
+      </c>
+      <c r="I26">
+        <v>0.05963129697424812</v>
+      </c>
+      <c r="J26">
+        <v>0.05963129697424811</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.4835966666666667</v>
+      </c>
+      <c r="N26">
+        <v>1.45079</v>
+      </c>
+      <c r="O26">
+        <v>0.04504190403760547</v>
+      </c>
+      <c r="P26">
+        <v>0.04504190403760547</v>
+      </c>
+      <c r="Q26">
+        <v>0.1718357587711111</v>
+      </c>
+      <c r="R26">
+        <v>1.54652182894</v>
+      </c>
+      <c r="S26">
+        <v>0.002685907155952037</v>
+      </c>
+      <c r="T26">
+        <v>0.002685907155952037</v>
       </c>
     </row>
   </sheetData>
